--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.3062000399241984</v>
+        <v>0.3558263622079672</v>
       </c>
       <c r="D2">
-        <v>0.7594903051263175</v>
+        <v>0.7253599250115363</v>
       </c>
       <c r="E2">
         <v>0.7635475011431219</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4630875419539412</v>
+        <v>-0.5364122771567675</v>
       </c>
       <c r="D3">
-        <v>0.6433616352716043</v>
+        <v>0.5970566225790981</v>
       </c>
       <c r="E3">
         <v>0.7635475011431219</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.06813942285379186</v>
+        <v>0.07992928449942263</v>
       </c>
       <c r="D4">
-        <v>0.9456827616931633</v>
+        <v>0.9370161322627881</v>
       </c>
       <c r="E4">
         <v>0.7635475011431219</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.9283213935105999</v>
+        <v>-0.8926103347866626</v>
       </c>
       <c r="D5">
-        <v>0.3533743124664026</v>
+        <v>0.3817259400272659</v>
       </c>
       <c r="E5">
         <v>0.7635475011431219</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7401715284786666</v>
+        <v>-0.7419855227749557</v>
       </c>
       <c r="D6">
-        <v>0.4592994056957103</v>
+        <v>0.46594445197866</v>
       </c>
       <c r="E6">
         <v>0.7551685580777595</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1979641154102278</v>
+        <v>-0.2210155030740124</v>
       </c>
       <c r="D7">
-        <v>0.8430971042665467</v>
+        <v>0.8271187515259215</v>
       </c>
       <c r="E7">
         <v>0.7551685580777595</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.133773645498005</v>
+        <v>-0.9650951717469163</v>
       </c>
       <c r="D8">
-        <v>0.2570513637820229</v>
+        <v>0.3449868853137279</v>
       </c>
       <c r="E8">
         <v>0.7551685580777595</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.5120804377035048</v>
+        <v>0.5254306519199953</v>
       </c>
       <c r="D9">
-        <v>0.6086620626143164</v>
+        <v>0.604539816183755</v>
       </c>
       <c r="E9">
         <v>0.7771401760899209</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.393766507232415</v>
+        <v>-0.3660466417789755</v>
       </c>
       <c r="D10">
-        <v>0.6938034334218894</v>
+        <v>0.7178267134626326</v>
       </c>
       <c r="E10">
         <v>0.7771401760899209</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.9079967399345213</v>
+        <v>-0.7426618619608237</v>
       </c>
       <c r="D11">
-        <v>0.3640102482899974</v>
+        <v>0.4655430168590762</v>
       </c>
       <c r="E11">
         <v>0.761509499360133</v>
